--- a/fpl_defendersOld.xlsx
+++ b/fpl_defendersOld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D113"/>
+  <dimension ref="A1:D114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,115 +458,115 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Gomez (D)</t>
+          <t>Jansson (D)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LIV</t>
+          <t>BRE</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="D2" t="n">
-        <v>3.69329684</v>
+        <v>1.859531860000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Andersen (D)</t>
+          <t>Roberts (D)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CRY</t>
+          <t>BUR</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="D3" t="n">
-        <v>3.08986617</v>
+        <v>2.543008240000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Doherty (D)</t>
+          <t>Alonso (D)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TOT</t>
+          <t>CHE</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="D4" t="n">
-        <v>2.22568231</v>
+        <v>4.236539400000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Davies (D)</t>
+          <t>Cooper (D)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TOT</t>
+          <t>LEE</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4.4</v>
       </c>
       <c r="D5" t="n">
-        <v>2.58108147</v>
+        <v>3.7208008</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Hanley (D)</t>
+          <t>Koch (D)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NOR</t>
+          <t>LEE</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="D6" t="n">
-        <v>2.96197695</v>
+        <v>3.4198774</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Emerson Royal (D)</t>
+          <t>Ayling (D)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TOT</t>
+          <t>LEE</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="D7" t="n">
-        <v>3.04718089</v>
+        <v>4.56511248</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Alonso (D)</t>
+          <t>Rüdiger (D)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -575,70 +575,70 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="D8" t="n">
-        <v>4.65079343</v>
+        <v>4.2922454</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Rüdiger (D)</t>
+          <t>Keane (D)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CHE</t>
+          <t>EVE</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6.2</v>
+        <v>4.7</v>
       </c>
       <c r="D9" t="n">
-        <v>3.71867091</v>
+        <v>3.0823388</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Krafth (D)</t>
+          <t>Zanka (D)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>BRE</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="D10" t="n">
-        <v>2.964472000000001</v>
+        <v>3.5389924</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Christensen (D)</t>
+          <t>Burn (D)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CHE</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="D11" t="n">
-        <v>3.779623010000001</v>
+        <v>2.990683270000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Koch (D)</t>
+          <t>Llorente (D)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -647,70 +647,70 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="D12" t="n">
-        <v>3.4198774</v>
+        <v>3.93721158</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Giannoulis (D)</t>
+          <t>Targett (D)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NOR</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="D13" t="n">
-        <v>3.31550703</v>
+        <v>2.63282615</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Reguilón (D)</t>
+          <t>Ajer (D)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TOT</t>
+          <t>BRE</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="D14" t="n">
-        <v>3.73569472</v>
+        <v>3.65213833</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Evans (D)</t>
+          <t>Cancelo (D)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LEI</t>
+          <t>MCI</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5.4</v>
+        <v>7.1</v>
       </c>
       <c r="D15" t="n">
-        <v>3.2266828</v>
+        <v>3.76836567</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Coleman (D)</t>
+          <t>Mykolenko (D)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -722,85 +722,85 @@
         <v>4.9</v>
       </c>
       <c r="D16" t="n">
-        <v>3.3754586</v>
+        <v>2.26143985</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Zanka (D)</t>
+          <t>Collins (D)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BRE</t>
+          <t>BUR</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="D17" t="n">
-        <v>3.5389924</v>
+        <v>3.03979661</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Byram (D)</t>
+          <t>Azpilicueta (D)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NOR</t>
+          <t>CHE</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4.4</v>
+        <v>5.6</v>
       </c>
       <c r="D18" t="n">
-        <v>2.626508110000001</v>
+        <v>1.745615990000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Gibson (D)</t>
+          <t>Alexander-Arnold (D)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NOR</t>
+          <t>LIV</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4.4</v>
+        <v>8.4</v>
       </c>
       <c r="D19" t="n">
-        <v>2.4661277</v>
+        <v>5.09176545</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Aké (D)</t>
+          <t>Schär (D)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="D20" t="n">
-        <v>4.82305</v>
+        <v>2.82146604</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Schär (D)</t>
+          <t>Krafth (D)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -809,214 +809,214 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="D21" t="n">
-        <v>3.82223061</v>
+        <v>2.97923372</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Cancelo (D)</t>
+          <t>Henry (D)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>BRE</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="D22" t="n">
-        <v>4.75705684</v>
+        <v>3.480986229999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Jonny (D)</t>
+          <t>Bednarek (D)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>WOL</t>
+          <t>SOU</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="D23" t="n">
-        <v>3.76111502</v>
+        <v>3.54245094</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Cucurella (D)</t>
+          <t>Romero (D)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BHA</t>
+          <t>TOT</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="D24" t="n">
-        <v>3.008444250000001</v>
+        <v>4.296156010000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Cresswell (D)</t>
+          <t>Hanley (D)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>WHU</t>
+          <t>NOR</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5.4</v>
+        <v>4.4</v>
       </c>
       <c r="D25" t="n">
-        <v>4.29686879</v>
+        <v>2.99106829</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Mykolenko (D)</t>
+          <t>Lyanco (D)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>EVE</t>
+          <t>SOU</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="D26" t="n">
-        <v>3.30413893</v>
+        <v>2.541808470000001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Henry (D)</t>
+          <t>Reguilón (D)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BRE</t>
+          <t>TOT</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="D27" t="n">
-        <v>2.86145621</v>
+        <v>3.2855154</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Veltman (D)</t>
+          <t>Godfrey (D)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BHA</t>
+          <t>EVE</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="D28" t="n">
-        <v>3.24785305</v>
+        <v>2.67760701</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Cooper (D)</t>
+          <t>Davies (D)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>LEE</t>
+          <t>TOT</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>4.4</v>
       </c>
       <c r="D29" t="n">
-        <v>3.6754145</v>
+        <v>3.3993319</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Collins (D)</t>
+          <t>Dier (D)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BUR</t>
+          <t>TOT</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="D30" t="n">
-        <v>3.75433087</v>
+        <v>4.1423226</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Pinnock (D)</t>
+          <t>Coleman (D)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BRE</t>
+          <t>EVE</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="D31" t="n">
-        <v>3.290155300000001</v>
+        <v>3.00642362</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Dier (D)</t>
+          <t>Cucurella (D)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TOT</t>
+          <t>BHA</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="D32" t="n">
-        <v>3.75354598</v>
+        <v>2.97784531</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Dunk (D)</t>
+          <t>Lamptey (D)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1025,124 +1025,124 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="D33" t="n">
-        <v>3.07847224</v>
+        <v>2.9129878</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Llorente (D)</t>
+          <t>Laporte (D)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>LEE</t>
+          <t>MCI</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4.5</v>
+        <v>5.9</v>
       </c>
       <c r="D34" t="n">
-        <v>3.91785373</v>
+        <v>4.2603761</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Holgate (D)</t>
+          <t>Byram (D)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>EVE</t>
+          <t>NOR</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="D35" t="n">
-        <v>3.1448479</v>
+        <v>2.92783133</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Matip (D)</t>
+          <t>Pinnock (D)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>LIV</t>
+          <t>BRE</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="D36" t="n">
-        <v>3.66710404</v>
+        <v>3.5559462</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Alexander-Arnold (D)</t>
+          <t>Giannoulis (D)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>LIV</t>
+          <t>NOR</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>8.4</v>
+        <v>4.4</v>
       </c>
       <c r="D37" t="n">
-        <v>4.48328375</v>
+        <v>3.34028532</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Romero (D)</t>
+          <t>Gibson (D)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TOT</t>
+          <t>NOR</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="D38" t="n">
-        <v>3.9324157</v>
+        <v>2.6542124</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Ajer (D)</t>
+          <t>Matip (D)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BRE</t>
+          <t>LIV</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="D39" t="n">
-        <v>3.19835098</v>
+        <v>3.7080403</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Walker (D)</t>
+          <t>Stones (D)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1151,388 +1151,388 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="D40" t="n">
-        <v>3.871145370000001</v>
+        <v>3.71878605</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Ayling (D)</t>
+          <t>Thiago Silva (D)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>LEE</t>
+          <t>CHE</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4.3</v>
+        <v>5.6</v>
       </c>
       <c r="D41" t="n">
-        <v>4.40809388</v>
+        <v>3.5108495</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Burn (D)</t>
+          <t>Christensen (D)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>CHE</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="D42" t="n">
-        <v>3.13219545</v>
+        <v>3.54894041</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Guéhi (D)</t>
+          <t>Perraud (D)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CRY</t>
+          <t>SOU</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="D43" t="n">
-        <v>3.43936371</v>
+        <v>3.02674714</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Marçal (D)</t>
+          <t>Emerson Royal (D)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>WOL</t>
+          <t>TOT</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="D44" t="n">
-        <v>4.11988394</v>
+        <v>3.21475344</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Mitchell (D)</t>
+          <t>van Dijk (D)</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CRY</t>
+          <t>LIV</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4.5</v>
+        <v>6.8</v>
       </c>
       <c r="D45" t="n">
-        <v>2.88806231</v>
+        <v>4.1907992</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Laporte (D)</t>
+          <t>Robertson (D)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>LIV</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5.8</v>
+        <v>7.3</v>
       </c>
       <c r="D46" t="n">
-        <v>4.62247311</v>
+        <v>3.98393703</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Clyne (D)</t>
+          <t>Telles (D)</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CRY</t>
+          <t>MUN</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
       <c r="D47" t="n">
-        <v>3.07343871</v>
+        <v>4.31117471</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Targett (D)</t>
+          <t>Veltman (D)</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>BHA</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="D48" t="n">
-        <v>2.79602878</v>
+        <v>3.13338364</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Kouyaté (D)</t>
+          <t>Taylor (D)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CRY</t>
+          <t>BUR</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="D49" t="n">
-        <v>2.463876</v>
+        <v>3.145829220000001</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Thiago Silva (D)</t>
+          <t>Tarkowski (D)</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CHE</t>
+          <t>BUR</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5.7</v>
+        <v>4.9</v>
       </c>
       <c r="D50" t="n">
-        <v>3.743772100000001</v>
+        <v>3.07468355</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>van Dijk (D)</t>
+          <t>Lowton (D)</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>LIV</t>
+          <t>BUR</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>6.8</v>
+        <v>4.4</v>
       </c>
       <c r="D51" t="n">
-        <v>3.642498010000001</v>
+        <v>3.93193919</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Robertson (D)</t>
+          <t>Dunk (D)</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>LIV</t>
+          <t>BHA</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>7.3</v>
+        <v>4.8</v>
       </c>
       <c r="D52" t="n">
-        <v>4.14806198</v>
+        <v>2.65697203</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Lamptey (D)</t>
+          <t>Valery (D)</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BHA</t>
+          <t>SOU</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="D53" t="n">
-        <v>3.07940115</v>
+        <v>3.024395200000001</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Walker-Peters (D)</t>
+          <t>Marçal (D)</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>SOU</t>
+          <t>WOL</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="D54" t="n">
-        <v>4.72548288</v>
+        <v>3.8123616</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Godfrey (D)</t>
+          <t>Pereira (D)</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>EVE</t>
+          <t>LEI</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="D55" t="n">
-        <v>3.02607568</v>
+        <v>3.02569197</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Fredericks (D)</t>
+          <t>Evans (D)</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>WHU</t>
+          <t>LEI</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4.4</v>
+        <v>5.4</v>
       </c>
       <c r="D56" t="n">
-        <v>2.66984802</v>
+        <v>3.286353800000001</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Lindelöf (D)</t>
+          <t>Walker-Peters (D)</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MUN</t>
+          <t>SOU</t>
         </is>
       </c>
       <c r="C57" t="n">
         <v>4.8</v>
       </c>
       <c r="D57" t="n">
-        <v>3.73126418</v>
+        <v>3.29099864</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Boly (D)</t>
+          <t>Johnson (D)</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>WOL</t>
+          <t>WHU</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4.9</v>
+        <v>3.9</v>
       </c>
       <c r="D58" t="n">
-        <v>3.945674</v>
+        <v>3.92937231</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Söyüncü (D)</t>
+          <t>Boly (D)</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>LEI</t>
+          <t>WOL</t>
         </is>
       </c>
       <c r="C59" t="n">
         <v>4.9</v>
       </c>
       <c r="D59" t="n">
-        <v>3.73123006</v>
+        <v>4.198112800000001</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Wan-Bissaka (D)</t>
+          <t>Coady (D)</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MUN</t>
+          <t>WOL</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="D60" t="n">
-        <v>3.40413259</v>
+        <v>4.1599442</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Dalot (D)</t>
+          <t>Jonny (D)</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MUN</t>
+          <t>WOL</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="D61" t="n">
-        <v>3.758957730000001</v>
+        <v>3.53255547</v>
       </c>
     </row>
     <row r="62">
@@ -1547,142 +1547,142 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="D62" t="n">
-        <v>3.9294643</v>
+        <v>4.5293926</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Maguire (D)</t>
+          <t>Fofana (D)</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MUN</t>
+          <t>LEI</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5.4</v>
+        <v>4.3</v>
       </c>
       <c r="D63" t="n">
-        <v>3.71531026</v>
+        <v>3.61125419</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Justin (D)</t>
+          <t>Sørensen (D)</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>LEI</t>
+          <t>BRE</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="D64" t="n">
-        <v>2.75461751</v>
+        <v>3.53122594</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Varane (D)</t>
+          <t>Diop (D)</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MUN</t>
+          <t>WHU</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="D65" t="n">
-        <v>3.663096000000001</v>
+        <v>3.36713565</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Keane (D)</t>
+          <t>Justin (D)</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>EVE</t>
+          <t>LEI</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="D66" t="n">
-        <v>2.389532420000001</v>
+        <v>3.3701392</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Jansson (D)</t>
+          <t>Dawson (D)</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BRE</t>
+          <t>WHU</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="D67" t="n">
-        <v>2.2111548</v>
+        <v>3.27918</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Taylor (D)</t>
+          <t>Cresswell (D)</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BUR</t>
+          <t>WHU</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4.4</v>
+        <v>5.5</v>
       </c>
       <c r="D68" t="n">
-        <v>3.43406602</v>
+        <v>3.50961228</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Roerslev (D)</t>
+          <t>Femenía (D)</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BRE</t>
+          <t>WAT</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D69" t="n">
-        <v>2.6271871</v>
+        <v>3.24009541</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Amartey (D)</t>
+          <t>Castagne (D)</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1691,340 +1691,340 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5.3</v>
       </c>
       <c r="D70" t="n">
-        <v>3.2554765</v>
+        <v>3.1280441</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Telles (D)</t>
+          <t>Andersen (D)</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MUN</t>
+          <t>CRY</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="D71" t="n">
-        <v>4.39844862</v>
+        <v>4.24963245</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Coady (D)</t>
+          <t>Söyüncü (D)</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>WOL</t>
+          <t>LEI</t>
         </is>
       </c>
       <c r="C72" t="n">
         <v>4.9</v>
       </c>
       <c r="D72" t="n">
-        <v>3.4160063</v>
+        <v>3.88905693</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Zouma (D)</t>
+          <t>Tavares (D)</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>WHU</t>
+          <t>ARS</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5.4</v>
+        <v>4.3</v>
       </c>
       <c r="D73" t="n">
-        <v>3.077511900000001</v>
+        <v>3.03947464</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Dawson (D)</t>
+          <t>Clyne (D)</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>WHU</t>
+          <t>CRY</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="D74" t="n">
-        <v>3.2500352</v>
+        <v>3.46356501</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Castagne (D)</t>
+          <t>Guéhi (D)</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>LEI</t>
+          <t>CRY</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="D75" t="n">
-        <v>2.56499532</v>
+        <v>4.60643504</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Samir (D)</t>
+          <t>Thomas (D)</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>WAT</t>
+          <t>LEI</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="D76" t="n">
-        <v>2.537696520000001</v>
+        <v>3.805573970000001</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>White (D)</t>
+          <t>Cathcart (D)</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ARS</t>
+          <t>WAT</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="D77" t="n">
-        <v>3.77718401</v>
+        <v>2.709146</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Tarkowski (D)</t>
+          <t>Cédric (D)</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>BUR</t>
+          <t>ARS</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="D78" t="n">
-        <v>2.86905406</v>
+        <v>3.160553600000001</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Long (D)</t>
+          <t>Coufal (D)</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BUR</t>
+          <t>WHU</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="D79" t="n">
-        <v>2.93327668</v>
+        <v>3.241766720000001</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Kenny (D)</t>
+          <t>Ait Nouri (D)</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>EVE</t>
+          <t>WOL</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="D80" t="n">
-        <v>3.40534789</v>
+        <v>3.556637</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Stones (D)</t>
+          <t>Doherty (D)</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>TOT</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="D81" t="n">
-        <v>4.1812728</v>
+        <v>3.3069398</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Lascelles (D)</t>
+          <t>Walker (D)</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>MCI</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4.4</v>
+        <v>5.4</v>
       </c>
       <c r="D82" t="n">
-        <v>2.5650762</v>
+        <v>4.035517</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Cédric (D)</t>
+          <t>Aké (D)</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ARS</t>
+          <t>MCI</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="D83" t="n">
-        <v>3.44300093</v>
+        <v>3.1875814</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Kabasele (D)</t>
+          <t>Amartey (D)</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>WAT</t>
+          <t>LEI</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>2.22774921</v>
+        <v>3.60669609</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Femenía (D)</t>
+          <t>Roerslev (D)</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>WAT</t>
+          <t>BRE</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="D85" t="n">
-        <v>2.95085873</v>
+        <v>2.117498400000001</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Diop (D)</t>
+          <t>Samir (D)</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>WHU</t>
+          <t>WAT</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="D86" t="n">
-        <v>2.7418204</v>
+        <v>3.10404168</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Webster (D)</t>
+          <t>Maguire (D)</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>BHA</t>
+          <t>MUN</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4.3</v>
+        <v>5.4</v>
       </c>
       <c r="D87" t="n">
-        <v>4.224132</v>
+        <v>2.87947918</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Williams (D)</t>
+          <t>Zouma (D)</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>NOR</t>
+          <t>WHU</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3.9</v>
+        <v>5.4</v>
       </c>
       <c r="D88" t="n">
-        <v>2.7577938</v>
+        <v>2.544084600000001</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Branthwaite (D)</t>
+          <t>Mina (D)</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2033,262 +2033,262 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="D89" t="n">
-        <v>3.190001370000001</v>
+        <v>3.19831393</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Thomas (D)</t>
+          <t>Wan-Bissaka (D)</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>LEI</t>
+          <t>MUN</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
       <c r="D90" t="n">
-        <v>4.118779640000001</v>
+        <v>2.98054869</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Struijk (D)</t>
+          <t>Williams (D)</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>LEE</t>
+          <t>NOR</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="D91" t="n">
-        <v>4.72668</v>
+        <v>2.7577938</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Gabriel (D)</t>
+          <t>Mitchell (D)</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ARS</t>
+          <t>CRY</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5.4</v>
+        <v>4.5</v>
       </c>
       <c r="D92" t="n">
-        <v>4.30197394</v>
+        <v>3.50853762</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Coufal (D)</t>
+          <t>Kabasele (D)</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>WHU</t>
+          <t>WAT</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="D93" t="n">
-        <v>3.241766720000001</v>
+        <v>2.86838361</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Fofana (D)</t>
+          <t>Gabriel (D)</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>LEI</t>
+          <t>ARS</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4.3</v>
+        <v>5.4</v>
       </c>
       <c r="D94" t="n">
-        <v>3.466166530000001</v>
+        <v>3.56377663</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Ait Nouri (D)</t>
+          <t>White (D)</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>WOL</t>
+          <t>ARS</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="D95" t="n">
-        <v>3.556637</v>
+        <v>3.52320378</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Roberts (D)</t>
+          <t>Lindelöf (D)</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>BUR</t>
+          <t>MUN</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="D96" t="n">
-        <v>3.343405600000001</v>
+        <v>3.36890587</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Kamara (D)</t>
+          <t>Holding (D)</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>WAT</t>
+          <t>ARS</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="D97" t="n">
-        <v>2.83641992</v>
+        <v>2.1281428</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Salisu (D)</t>
+          <t>Zinchenko (D)</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>SOU</t>
+          <t>MCI</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="D98" t="n">
-        <v>3.7461304</v>
+        <v>2.8647114</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>James (D)</t>
+          <t>Dias (D)</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>CHE</t>
+          <t>MCI</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="D99" t="n">
-        <v>2.7366143</v>
+        <v>2.7961612</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Digne (D)</t>
+          <t>Kouyaté (D)</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>AVL</t>
+          <t>CRY</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="D100" t="n">
-        <v>3.833695200000001</v>
+        <v>2.756475600000001</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Mings (D)</t>
+          <t>James (D)</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>AVL</t>
+          <t>CHE</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>6.3</v>
       </c>
       <c r="D101" t="n">
-        <v>3.96337583</v>
+        <v>3.5357016</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Lowton (D)</t>
+          <t>Dalot (D)</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>BUR</t>
+          <t>MUN</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="D102" t="n">
-        <v>4.43132546</v>
+        <v>2.41639964</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Cash (D)</t>
+          <t>Kamara (D)</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>AVL</t>
+          <t>WAT</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="D103" t="n">
-        <v>3.9076494</v>
+        <v>3.07461863</v>
       </c>
     </row>
     <row r="104">
@@ -2306,61 +2306,61 @@
         <v>4.3</v>
       </c>
       <c r="D104" t="n">
-        <v>3.39217653</v>
+        <v>2.96934827</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Tavares (D)</t>
+          <t>Jones (D)</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ARS</t>
+          <t>MUN</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="D105" t="n">
-        <v>3.512249600000001</v>
+        <v>2.6849216</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Shaw (D)</t>
+          <t>Konsa (D)</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>MUN</t>
+          <t>AVL</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="D106" t="n">
-        <v>3.02638936</v>
+        <v>2.641303090000001</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Azpilicueta (D)</t>
+          <t>Webster (D)</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>CHE</t>
+          <t>BHA</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>5.6</v>
+        <v>4.3</v>
       </c>
       <c r="D107" t="n">
-        <v>4.37055564</v>
+        <v>2.529715</v>
       </c>
     </row>
     <row r="108">
@@ -2384,7 +2384,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Konsa (D)</t>
+          <t>Digne (D)</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2393,82 +2393,100 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="D109" t="n">
-        <v>3.39528977</v>
+        <v>4.806274</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Valery (D)</t>
+          <t>Cash (D)</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>SOU</t>
+          <t>AVL</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>3.9</v>
+        <v>5.2</v>
       </c>
       <c r="D110" t="n">
-        <v>3.4611602</v>
+        <v>2.69701886</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Bednarek (D)</t>
+          <t>Young (D)</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>SOU</t>
+          <t>AVL</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="D111" t="n">
-        <v>3.33847673</v>
+        <v>2.719016</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Manquillo (D)</t>
+          <t>Mings (D)</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>AVL</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="D112" t="n">
-        <v>2.5903804</v>
+        <v>2.734150000000001</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Young (D)</t>
+          <t>Salisu (D)</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>AVL</t>
+          <t>SOU</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="D113" t="n">
-        <v>3.6373099</v>
+        <v>4.1028676</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Sarr (D)</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>CHE</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="D114" t="n">
+        <v>4.7551538</v>
       </c>
     </row>
   </sheetData>
